--- a/Perizia.xlsx
+++ b/Perizia.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\932197\Documents\dati_locali\git-hub\SAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\932197\OneDrive - Gruppo Ferrovie Dello Stato\Documenti\PMVTLC\1_AQ 1426-2022 BitFox TLC\CA XX_2023 - Manutenzione UPS TLC\02_Perizie_IdS\NTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="VDT" sheetId="1" r:id="rId1"/>
     <sheet name="Elenchi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="184">
   <si>
     <t>Network</t>
   </si>
@@ -590,14 +590,21 @@
   </si>
   <si>
     <t>Watt</t>
+  </si>
+  <si>
+    <t>Ribasso</t>
+  </si>
+  <si>
+    <t>RIBASSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -631,7 +638,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +711,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -735,7 +748,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -784,6 +797,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1090,26 +1110,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="1" max="2" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="17" style="2" customWidth="1"/>
-    <col min="9" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="11" style="20" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1155,7 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
@@ -1144,7 +1165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>100157714</v>
       </c>
@@ -1170,7 +1191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>100157714</v>
       </c>
@@ -1196,7 +1217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100157714</v>
       </c>
@@ -1222,7 +1243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>100157714</v>
       </c>
@@ -1248,7 +1269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100157714</v>
       </c>
@@ -1274,7 +1295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>100157714</v>
       </c>
@@ -1300,7 +1321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>100157714</v>
       </c>
@@ -1326,7 +1347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>100157714</v>
       </c>
@@ -1352,7 +1373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>100157714</v>
       </c>
@@ -1378,7 +1399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>100157714</v>
       </c>
@@ -1404,7 +1425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100157714</v>
       </c>
@@ -1430,7 +1451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>100157714</v>
       </c>
@@ -1456,7 +1477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>100157714</v>
       </c>
@@ -1482,7 +1503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>100157714</v>
       </c>
@@ -1508,7 +1529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>100157714</v>
       </c>
@@ -1534,7 +1555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>100157714</v>
       </c>
@@ -1560,7 +1581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>100157714</v>
       </c>
@@ -1586,7 +1607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>100157714</v>
       </c>
@@ -1612,7 +1633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>100157714</v>
       </c>
@@ -1634,7 +1655,7 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="20">
         <v>320.05</v>
       </c>
       <c r="J20" t="s">
@@ -1644,7 +1665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>100157714</v>
       </c>
@@ -1666,7 +1687,7 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="20">
         <v>683.33</v>
       </c>
       <c r="J21" t="s">
@@ -1676,7 +1697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>100157714</v>
       </c>
@@ -1702,7 +1723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>100157714</v>
       </c>
@@ -1728,7 +1749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100157714</v>
       </c>
@@ -1754,7 +1775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>100157714</v>
       </c>
@@ -1780,7 +1801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>100157714</v>
       </c>
@@ -1806,7 +1827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>100157714</v>
       </c>
@@ -1832,7 +1853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>100157714</v>
       </c>
@@ -1858,7 +1879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>100157714</v>
       </c>
@@ -1884,7 +1905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>100157714</v>
       </c>
@@ -1910,7 +1931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>100157714</v>
       </c>
@@ -1932,7 +1953,7 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="20">
         <v>320.05</v>
       </c>
       <c r="J31" t="s">
@@ -1942,7 +1963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>100157714</v>
       </c>
@@ -1964,7 +1985,7 @@
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="20">
         <v>683.33</v>
       </c>
       <c r="J32" t="s">
@@ -1974,7 +1995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>100157714</v>
       </c>
@@ -2000,7 +2021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>100157714</v>
       </c>
@@ -2026,7 +2047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>100157714</v>
       </c>
@@ -2052,7 +2073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>100157714</v>
       </c>
@@ -2078,7 +2099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>100157714</v>
       </c>
@@ -2104,7 +2125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>100157714</v>
       </c>
@@ -2130,7 +2151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>100157714</v>
       </c>
@@ -2156,7 +2177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>100157714</v>
       </c>
@@ -2182,7 +2203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>100157714</v>
       </c>
@@ -2208,7 +2229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>100157714</v>
       </c>
@@ -2230,7 +2251,7 @@
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="20">
         <v>320.05</v>
       </c>
       <c r="J42" t="s">
@@ -2240,7 +2261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>100157714</v>
       </c>
@@ -2262,7 +2283,7 @@
       <c r="H43">
         <v>1</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="20">
         <v>683.33</v>
       </c>
       <c r="J43" t="s">
@@ -2272,7 +2293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>100157714</v>
       </c>
@@ -2298,7 +2319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>100157714</v>
       </c>
@@ -2324,7 +2345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>100157714</v>
       </c>
@@ -2350,7 +2371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>100157714</v>
       </c>
@@ -2376,7 +2397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>100157714</v>
       </c>
@@ -2402,7 +2423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>100157714</v>
       </c>
@@ -2428,7 +2449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>100157714</v>
       </c>
@@ -2454,7 +2475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>100157714</v>
       </c>
@@ -2480,7 +2501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>100157714</v>
       </c>
@@ -2506,7 +2527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>100157714</v>
       </c>
@@ -2528,7 +2549,7 @@
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="20">
         <v>320.05</v>
       </c>
       <c r="J53" t="s">
@@ -2538,7 +2559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>100157714</v>
       </c>
@@ -2560,7 +2581,7 @@
       <c r="H54">
         <v>1</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="20">
         <v>683.33</v>
       </c>
       <c r="J54" t="s">
@@ -2570,7 +2591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>100157714</v>
       </c>
@@ -2596,7 +2617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>100157714</v>
       </c>
@@ -2622,7 +2643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>100157714</v>
       </c>
@@ -2648,7 +2669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>100157714</v>
       </c>
@@ -2674,7 +2695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>100157714</v>
       </c>
@@ -2700,7 +2721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>100157714</v>
       </c>
@@ -2726,7 +2747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>100157714</v>
       </c>
@@ -2752,7 +2773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>100157714</v>
       </c>
@@ -2778,7 +2799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>100157714</v>
       </c>
@@ -2804,7 +2825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>100157714</v>
       </c>
@@ -2826,7 +2847,7 @@
       <c r="H64">
         <v>1</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="20">
         <v>320.05</v>
       </c>
       <c r="J64" t="s">
@@ -2836,7 +2857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>100157714</v>
       </c>
@@ -2858,7 +2879,7 @@
       <c r="H65">
         <v>1</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="20">
         <v>683.33</v>
       </c>
       <c r="J65" t="s">
@@ -2868,7 +2889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>100157714</v>
       </c>
@@ -2894,7 +2915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>100157714</v>
       </c>
@@ -2920,7 +2941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>100157714</v>
       </c>
@@ -2946,7 +2967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>100157714</v>
       </c>
@@ -2972,7 +2993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>100157714</v>
       </c>
@@ -2998,7 +3019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>100157714</v>
       </c>
@@ -3024,7 +3045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>100157714</v>
       </c>
@@ -3050,7 +3071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>100157714</v>
       </c>
@@ -3076,7 +3097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>100157714</v>
       </c>
@@ -3102,7 +3123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>100157714</v>
       </c>
@@ -3124,7 +3145,7 @@
       <c r="H75">
         <v>1</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="20">
         <v>320.05</v>
       </c>
       <c r="J75" t="s">
@@ -3134,7 +3155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>100157714</v>
       </c>
@@ -3156,7 +3177,7 @@
       <c r="H76">
         <v>1</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="20">
         <v>683.33</v>
       </c>
       <c r="J76" t="s">
@@ -3166,7 +3187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>100157714</v>
       </c>
@@ -3192,7 +3213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>100157714</v>
       </c>
@@ -3218,7 +3239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>100157714</v>
       </c>
@@ -3244,7 +3265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>100157714</v>
       </c>
@@ -3270,7 +3291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>100157714</v>
       </c>
@@ -3296,7 +3317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>100157714</v>
       </c>
@@ -3322,7 +3343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>100157714</v>
       </c>
@@ -3348,7 +3369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>100157714</v>
       </c>
@@ -3374,7 +3395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>100157714</v>
       </c>
@@ -3400,7 +3421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>100157714</v>
       </c>
@@ -3422,7 +3443,7 @@
       <c r="H86">
         <v>1</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="20">
         <v>320.05</v>
       </c>
       <c r="J86" t="s">
@@ -3432,7 +3453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>100157714</v>
       </c>
@@ -3454,7 +3475,7 @@
       <c r="H87">
         <v>1</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="20">
         <v>683.33</v>
       </c>
       <c r="J87" t="s">
@@ -3464,7 +3485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>100157714</v>
       </c>
@@ -3490,7 +3511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>100157714</v>
       </c>
@@ -3516,7 +3537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>100157714</v>
       </c>
@@ -3542,7 +3563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>100157714</v>
       </c>
@@ -3568,7 +3589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>100157714</v>
       </c>
@@ -3594,7 +3615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>100157714</v>
       </c>
@@ -3620,7 +3641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>100157714</v>
       </c>
@@ -3646,7 +3667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>100157714</v>
       </c>
@@ -3672,7 +3693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>100157714</v>
       </c>
@@ -3698,7 +3719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>100157714</v>
       </c>
@@ -3720,7 +3741,7 @@
       <c r="H97">
         <v>1</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="20">
         <v>320.05</v>
       </c>
       <c r="J97" t="s">
@@ -3730,7 +3751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>100157714</v>
       </c>
@@ -3752,7 +3773,7 @@
       <c r="H98">
         <v>1</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="20">
         <v>683.33</v>
       </c>
       <c r="J98" t="s">
@@ -3762,7 +3783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>100157714</v>
       </c>
@@ -3788,7 +3809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>100157714</v>
       </c>
@@ -3814,7 +3835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100157714</v>
       </c>
@@ -3840,7 +3861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100157714</v>
       </c>
@@ -3866,7 +3887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>100157714</v>
       </c>
@@ -3892,7 +3913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>100157714</v>
       </c>
@@ -3918,7 +3939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>100157714</v>
       </c>
@@ -3944,7 +3965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>100157714</v>
       </c>
@@ -3970,7 +3991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>100157714</v>
       </c>
@@ -3996,7 +4017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>100157714</v>
       </c>
@@ -4018,7 +4039,7 @@
       <c r="H108">
         <v>1</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="20">
         <v>320.05</v>
       </c>
       <c r="J108" t="s">
@@ -4028,7 +4049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>100157714</v>
       </c>
@@ -4050,7 +4071,7 @@
       <c r="H109">
         <v>1</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="20">
         <v>683.33</v>
       </c>
       <c r="J109" t="s">
@@ -4060,7 +4081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>100157714</v>
       </c>
@@ -4086,7 +4107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>100157714</v>
       </c>
@@ -4112,7 +4133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>100157714</v>
       </c>
@@ -4138,7 +4159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>100157714</v>
       </c>
@@ -4164,7 +4185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>100157714</v>
       </c>
@@ -4190,7 +4211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>100157714</v>
       </c>
@@ -4216,7 +4237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>100157714</v>
       </c>
@@ -4242,7 +4263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>100157714</v>
       </c>
@@ -4264,7 +4285,7 @@
       <c r="H117">
         <v>1</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="20">
         <v>320.05</v>
       </c>
       <c r="J117" t="s">
@@ -4274,7 +4295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>100157714</v>
       </c>
@@ -4296,7 +4317,7 @@
       <c r="H118">
         <v>1</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="20">
         <v>683.33</v>
       </c>
       <c r="J118" t="s">
@@ -4306,7 +4327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>100157714</v>
       </c>
@@ -4328,8 +4349,8 @@
       <c r="H119">
         <v>1</v>
       </c>
-      <c r="I119">
-        <v>1</v>
+      <c r="I119" s="20">
+        <v>12797.523550035898</v>
       </c>
       <c r="J119" t="s">
         <v>47</v>
@@ -4338,10 +4359,42 @@
         <v>14</v>
       </c>
     </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>100157714</v>
+      </c>
+      <c r="B120" s="2">
+        <v>60</v>
+      </c>
+      <c r="C120" s="2">
+        <v>13</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F120" t="s">
+        <v>182</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H120">
+        <v>-1</v>
+      </c>
+      <c r="I120" s="20">
+        <v>117985.83</v>
+      </c>
+      <c r="J120" t="s">
+        <v>47</v>
+      </c>
+      <c r="K120" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4353,14 +4406,14 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4371,7 +4424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4382,7 +4435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4393,7 +4446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="15" t="s">
         <v>51</v>
       </c>
@@ -4401,7 +4454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
         <v>53</v>
       </c>
@@ -4409,7 +4462,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
         <v>28</v>
       </c>
@@ -4417,7 +4470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
         <v>56</v>
       </c>
@@ -4425,7 +4478,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
         <v>58</v>
       </c>
@@ -4433,7 +4486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
         <v>60</v>
       </c>
@@ -4441,7 +4494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
         <v>62</v>
       </c>
@@ -4449,7 +4502,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
         <v>64</v>
       </c>
@@ -4457,7 +4510,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="15" t="s">
         <v>66</v>
       </c>
@@ -4465,7 +4518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="15" t="s">
         <v>68</v>
       </c>
@@ -4473,7 +4526,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="15" t="s">
         <v>47</v>
       </c>
@@ -4481,7 +4534,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="15" t="s">
         <v>71</v>
       </c>
@@ -4489,7 +4542,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
         <v>73</v>
       </c>
@@ -4497,7 +4550,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="15" t="s">
         <v>75</v>
       </c>
@@ -4505,7 +4558,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
         <v>77</v>
       </c>
@@ -4513,7 +4566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="15" t="s">
         <v>79</v>
       </c>
@@ -4521,7 +4574,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="15" t="s">
         <v>81</v>
       </c>
@@ -4529,7 +4582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="15" t="s">
         <v>83</v>
       </c>
@@ -4537,7 +4590,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
         <v>85</v>
       </c>
@@ -4545,7 +4598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
         <v>86</v>
       </c>
@@ -4553,7 +4606,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="15" t="s">
         <v>88</v>
       </c>
@@ -4561,7 +4614,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="15" t="s">
         <v>90</v>
       </c>
@@ -4569,7 +4622,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="15" t="s">
         <v>92</v>
       </c>
@@ -4577,7 +4630,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="15" t="s">
         <v>94</v>
       </c>
@@ -4585,7 +4638,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="15" t="s">
         <v>96</v>
       </c>
@@ -4593,7 +4646,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="15" t="s">
         <v>98</v>
       </c>
@@ -4601,7 +4654,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="15" t="s">
         <v>100</v>
       </c>
@@ -4609,7 +4662,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="15" t="s">
         <v>102</v>
       </c>
@@ -4617,7 +4670,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="15" t="s">
         <v>104</v>
       </c>
@@ -4625,7 +4678,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="15" t="s">
         <v>106</v>
       </c>
@@ -4633,7 +4686,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
         <v>108</v>
       </c>
@@ -4641,7 +4694,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="15" t="s">
         <v>110</v>
       </c>
@@ -4649,7 +4702,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="15" t="s">
         <v>112</v>
       </c>
@@ -4657,7 +4710,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="15" t="s">
         <v>114</v>
       </c>
@@ -4665,7 +4718,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="15" t="s">
         <v>116</v>
       </c>
@@ -4673,7 +4726,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="15" t="s">
         <v>118</v>
       </c>
@@ -4681,7 +4734,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="15" t="s">
         <v>120</v>
       </c>
@@ -4689,7 +4742,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="15" t="s">
         <v>122</v>
       </c>
@@ -4697,7 +4750,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="15" t="s">
         <v>124</v>
       </c>
@@ -4705,7 +4758,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="15" t="s">
         <v>126</v>
       </c>
@@ -4713,7 +4766,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="15" t="s">
         <v>128</v>
       </c>
@@ -4721,7 +4774,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="15" t="s">
         <v>130</v>
       </c>
@@ -4729,7 +4782,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="15" t="s">
         <v>131</v>
       </c>
@@ -4737,7 +4790,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
         <v>133</v>
       </c>
@@ -4745,7 +4798,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" s="15" t="s">
         <v>135</v>
       </c>
@@ -4753,7 +4806,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="15" t="s">
         <v>137</v>
       </c>
@@ -4761,7 +4814,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="15" t="s">
         <v>139</v>
       </c>
@@ -4769,7 +4822,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="15" t="s">
         <v>141</v>
       </c>
@@ -4777,7 +4830,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="15" t="s">
         <v>143</v>
       </c>
@@ -4785,7 +4838,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="15" t="s">
         <v>145</v>
       </c>
@@ -4793,7 +4846,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="15" t="s">
         <v>147</v>
       </c>
@@ -4801,7 +4854,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="15" t="s">
         <v>149</v>
       </c>
@@ -4809,7 +4862,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="15" t="s">
         <v>151</v>
       </c>
@@ -4817,7 +4870,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="15" t="s">
         <v>153</v>
       </c>
@@ -4825,7 +4878,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="15" t="s">
         <v>155</v>
       </c>
@@ -4833,7 +4886,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="15" t="s">
         <v>157</v>
       </c>
@@ -4841,7 +4894,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="15" t="s">
         <v>159</v>
       </c>
@@ -4849,7 +4902,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="15" t="s">
         <v>161</v>
       </c>
@@ -4857,7 +4910,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="15" t="s">
         <v>163</v>
       </c>
@@ -4865,7 +4918,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="15" t="s">
         <v>165</v>
       </c>
@@ -4873,7 +4926,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="15" t="s">
         <v>167</v>
       </c>
@@ -4881,7 +4934,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="15" t="s">
         <v>169</v>
       </c>
@@ -4889,7 +4942,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="15" t="s">
         <v>171</v>
       </c>
@@ -4897,7 +4950,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="15" t="s">
         <v>173</v>
       </c>
@@ -4905,7 +4958,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="15" t="s">
         <v>175</v>
       </c>
@@ -4913,7 +4966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="15" t="s">
         <v>176</v>
       </c>
@@ -4921,7 +4974,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="15" t="s">
         <v>178</v>
       </c>
@@ -4929,7 +4982,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="15" t="s">
         <v>180</v>
       </c>
@@ -4941,4 +4994,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100277C7C466BA2334796C5FFC1EA441B65" ma:contentTypeVersion="17" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="16858d3189b6c318b3947e59ae1ba5bc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d711dfe6-0632-452e-83db-055fc5970243" xmlns:ns3="2c8c709e-1982-48dc-b855-e25b1b3a4518" xmlns:ns4="6f821667-dc32-45c3-a292-e0c8028e4643" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27b74a73fb41db5c8ff77e49d297dc92" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="d711dfe6-0632-452e-83db-055fc5970243"/>
+    <xsd:import namespace="2c8c709e-1982-48dc-b855-e25b1b3a4518"/>
+    <xsd:import namespace="6f821667-dc32-45c3-a292-e0c8028e4643"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d711dfe6-0632-452e-83db-055fc5970243" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2c8c709e-1982-48dc-b855-e25b1b3a4518" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="2f0c148f-5ca2-4a38-b716-16d776545e11" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6f821667-dc32-45c3-a292-e0c8028e4643" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d6216518-f20c-4c6e-b2fa-bd0667b4c271}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="6f821667-dc32-45c3-a292-e0c8028e4643">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4280C1CB-327D-44F5-B6F2-C0ABFBEBE0C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AF8D324-D6C1-40C2-B928-61CCEC63474D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d711dfe6-0632-452e-83db-055fc5970243"/>
+    <ds:schemaRef ds:uri="2c8c709e-1982-48dc-b855-e25b1b3a4518"/>
+    <ds:schemaRef ds:uri="6f821667-dc32-45c3-a292-e0c8028e4643"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Perizia.xlsx
+++ b/Perizia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\932197\OneDrive - Gruppo Ferrovie Dello Stato\Documenti\PMVTLC\1_AQ 1426-2022 BitFox TLC\CA XX_2023 - Manutenzione UPS TLC\02_Perizie_IdS\NTW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\932197\Documents\dati_locali\git-hub\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="VDT" sheetId="1" r:id="rId1"/>
     <sheet name="Elenchi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="195">
   <si>
     <t>Network</t>
   </si>
@@ -79,114 +79,150 @@
     <t>Inserita</t>
   </si>
   <si>
-    <t>SCC LOCALE TECNICO</t>
-  </si>
-  <si>
-    <t>IP.GC.A.3000.K</t>
+    <t>LOREGGIOLA KM 3+750</t>
+  </si>
+  <si>
+    <t>AI.PL.A.2004.A</t>
   </si>
   <si>
     <t>ANAGRAFICA</t>
   </si>
   <si>
+    <t>CAD</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>IP.GC.A.3000.L</t>
-  </si>
-  <si>
-    <t>MO.TN.B.8100.B</t>
-  </si>
-  <si>
-    <t>MO.LV.G.2100.A</t>
-  </si>
-  <si>
-    <t>TC.RR.G.3003.A</t>
-  </si>
-  <si>
-    <t>OS.AP.A.0106.A</t>
-  </si>
-  <si>
-    <t>OS.IF.A.0102.A</t>
-  </si>
-  <si>
-    <t>OS.MS.B.0105.A</t>
-  </si>
-  <si>
-    <t>OS.MS.A.0102.B</t>
-  </si>
-  <si>
-    <t>PORTOGRUARO</t>
-  </si>
-  <si>
-    <t>IP.GC.A.3000.A</t>
-  </si>
-  <si>
-    <t>IP.GC.A.3000.B</t>
-  </si>
-  <si>
-    <t>909/5830</t>
+    <t>AI.PL.A.2005.A</t>
+  </si>
+  <si>
+    <t>AI.PL.A.2006.A</t>
+  </si>
+  <si>
+    <t>AI.PL.A.2007.A</t>
+  </si>
+  <si>
+    <t>AI.PL.A.2007.B</t>
+  </si>
+  <si>
+    <t>AI.PL.B.3004.A</t>
+  </si>
+  <si>
+    <t>BA.PS.A.3 36.A</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>TC.CF.A.2001.C</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>TC.ST.H.3103.B</t>
+  </si>
+  <si>
+    <t>TC.ST.H.3102.D</t>
+  </si>
+  <si>
+    <t>TC.GD.D.3101.K</t>
+  </si>
+  <si>
+    <t>TC.LV.A.3102.C</t>
+  </si>
+  <si>
+    <t>TC.PM.F.2 04.B</t>
+  </si>
+  <si>
+    <t>TC.TR.C.3003.A</t>
+  </si>
+  <si>
+    <t>TC.RR.C.1001.S</t>
+  </si>
+  <si>
+    <t>MO.CV.B.2117.C</t>
+  </si>
+  <si>
+    <t>IG.GF.R.2001.A</t>
+  </si>
+  <si>
+    <t>IG.GF.R.2002.A</t>
+  </si>
+  <si>
+    <t>MO.SC.A.6100.A</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>MO.BL.D.3103.C</t>
+  </si>
+  <si>
+    <t>OM.MT.C.3 06.A</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>PIANZANO KM 55+421</t>
+  </si>
+  <si>
+    <t>TC.TR.M.3001.C</t>
+  </si>
+  <si>
+    <t>TC.TR.C.3005.B</t>
+  </si>
+  <si>
+    <t>TC.ST.H.1001.A</t>
+  </si>
+  <si>
+    <t>TC.ST.H.2001.A</t>
+  </si>
+  <si>
+    <t>AS.SI.A.2103.A</t>
+  </si>
+  <si>
+    <t>AS.SI.A.2105.A</t>
+  </si>
+  <si>
+    <t>BA.PS.A.3 27.A</t>
+  </si>
+  <si>
+    <t>ISTRANA KM 50+713</t>
+  </si>
+  <si>
+    <t>TREVISO S.QUARANTA KM 59+110</t>
+  </si>
+  <si>
+    <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+  </si>
+  <si>
+    <t>TC.VS.C.3003.F</t>
+  </si>
+  <si>
+    <t>TC.TR.C.3001.A</t>
+  </si>
+  <si>
+    <t>TC.ST.H.3101.B</t>
+  </si>
+  <si>
+    <t>TC.RR.F.1010.A</t>
+  </si>
+  <si>
+    <t>TC.RR.F.1013.A</t>
+  </si>
+  <si>
+    <t>TC.ST.H.3105.B</t>
+  </si>
+  <si>
+    <t>IMPREVISTI</t>
   </si>
   <si>
     <t>NON CODIFICATA</t>
   </si>
   <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>845/6460</t>
-  </si>
-  <si>
-    <t>CASTELFRANCO</t>
-  </si>
-  <si>
-    <t>PADOVA</t>
-  </si>
-  <si>
-    <t>IP.GC.A.3000.E</t>
-  </si>
-  <si>
-    <t>IP.GC.A.3000.F</t>
-  </si>
-  <si>
-    <t>VENEZIA</t>
-  </si>
-  <si>
-    <t>CONEGLIANO</t>
-  </si>
-  <si>
-    <t>BASSANO DEL GRAPPA</t>
-  </si>
-  <si>
-    <t>MESTRE TLC</t>
-  </si>
-  <si>
-    <t>MESTRE SO ING</t>
-  </si>
-  <si>
-    <t>IP.GC.A.3000.G</t>
-  </si>
-  <si>
-    <t>IP.GC.A.3000.H</t>
-  </si>
-  <si>
-    <t>BUSA DI VIGONZA</t>
-  </si>
-  <si>
-    <t>IP.GC.A.3000.C</t>
-  </si>
-  <si>
-    <t>IP.GC.A.3000.D</t>
-  </si>
-  <si>
-    <t>PORTO MARGHERA</t>
-  </si>
-  <si>
-    <t>PROGETTAZIONE</t>
-  </si>
-  <si>
-    <t>Tariffa DM 17.06.2016 n.50</t>
-  </si>
-  <si>
     <t>COR</t>
   </si>
   <si>
@@ -412,15 +448,9 @@
     <t>Unità di rendimento</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Metri</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
     <t>Metri quadri</t>
   </si>
   <si>
@@ -430,9 +460,6 @@
     <t>mm per metro quadrato</t>
   </si>
   <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>Metri cubi</t>
   </si>
   <si>
@@ -571,9 +598,6 @@
     <t>Ore</t>
   </si>
   <si>
-    <t>TAG</t>
-  </si>
-  <si>
     <t>TKM</t>
   </si>
   <si>
@@ -592,10 +616,19 @@
     <t>Watt</t>
   </si>
   <si>
-    <t>Ribasso</t>
-  </si>
-  <si>
-    <t>RIBASSO</t>
+    <t>PIOMBINO DESE KM 22+894</t>
+  </si>
+  <si>
+    <t>CASSOLA KM 46+067</t>
+  </si>
+  <si>
+    <t>814/2750</t>
+  </si>
+  <si>
+    <t>821/8450</t>
+  </si>
+  <si>
+    <t>846/6340</t>
   </si>
 </sst>
 </file>
@@ -638,7 +671,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,12 +692,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -677,19 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,7 +728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE7AEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,13 +763,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -760,14 +782,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -778,35 +803,27 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Migliaia 2" xfId="4"/>
     <cellStyle name="Migliaia 2 4" xfId="2"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 15" xfId="1"/>
@@ -814,6 +831,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFE7AEE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1110,11 +1132,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,165 +1147,179 @@
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="17" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11" style="17" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B2" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
+      <c r="D2" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>192</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>14</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="I2" s="17">
+        <v>8.92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B3" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>193</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="I3" s="17">
+        <v>25716.35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B4" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H4">
-        <v>200</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B5" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H5">
-        <v>1500</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B6" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
@@ -1291,51 +1327,57 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>14</v>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B7" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B8" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
@@ -1343,100 +1385,112 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="K8" s="18" t="s">
-        <v>14</v>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B9" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B10" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>14</v>
+      <c r="K10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B11" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>14</v>
+      <c r="K11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B12" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -1445,273 +1499,291 @@
         <v>13</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B13" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H13">
-        <v>200</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B14" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14">
-        <v>1500</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>14</v>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B15" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>14</v>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B16" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H16">
-        <v>100</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>14</v>
+        <v>7000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B17" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>14</v>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B18" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>14</v>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B19" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>5500</v>
+      </c>
+      <c r="J19" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>14</v>
+      <c r="K19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B20" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" s="20">
-        <v>320.05</v>
-      </c>
       <c r="J20" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B21" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="20">
-        <v>683.33</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B22" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>30</v>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>13</v>
@@ -1719,25 +1791,28 @@
       <c r="H22">
         <v>1</v>
       </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
       <c r="K22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B23" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>30</v>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>13</v>
@@ -1745,129 +1820,146 @@
       <c r="H23">
         <v>1</v>
       </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
       <c r="K23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B24" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>30</v>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>200</v>
+        <v>300</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
       </c>
       <c r="K24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B25" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>30</v>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>13</v>
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
       </c>
       <c r="H25">
         <v>1500</v>
       </c>
-      <c r="K25" t="s">
-        <v>14</v>
-      </c>
+      <c r="I25" s="17">
+        <v>8.92</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B26" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>30</v>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>13</v>
+        <v>194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="K26" t="s">
-        <v>14</v>
-      </c>
+      <c r="I26" s="17">
+        <v>1879.01</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B27" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B28" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
-        <v>3</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>13</v>
@@ -1875,167 +1967,173 @@
       <c r="H28">
         <v>1</v>
       </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
       <c r="K28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B29" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
       </c>
       <c r="K29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B30" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B31" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2">
-        <v>3</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="20">
-        <v>320.05</v>
-      </c>
       <c r="J31" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B32" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2">
-        <v>3</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" s="20">
-        <v>683.33</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B33" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2">
         <v>4</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>31</v>
+      <c r="D33" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B34" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2">
         <v>4</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>31</v>
+      <c r="D34" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>13</v>
@@ -2043,129 +2141,144 @@
       <c r="H34">
         <v>1</v>
       </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
       <c r="K34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B35" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2">
         <v>4</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>31</v>
+      <c r="D35" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H35">
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B36" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2">
         <v>4</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>31</v>
+      <c r="D36" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H36">
-        <v>1500</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B37" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2">
         <v>4</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>31</v>
+      <c r="D37" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>700</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B38" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2">
         <v>4</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>31</v>
+      <c r="D38" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H38">
-        <v>100</v>
+        <v>700</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B39" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2">
         <v>4</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>31</v>
+      <c r="D39" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>13</v>
@@ -2173,141 +2286,144 @@
       <c r="H39">
         <v>1</v>
       </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
       <c r="K39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B40" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2">
         <v>4</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>31</v>
+      <c r="D40" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B41" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2">
         <v>4</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>31</v>
+      <c r="D41" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B42" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2">
         <v>4</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>31</v>
+      <c r="D42" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" s="20">
-        <v>320.05</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B43" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2">
         <v>4</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>31</v>
+      <c r="D43" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
-      <c r="I43" s="20">
-        <v>683.33</v>
-      </c>
       <c r="J43" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B44" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2">
-        <v>5</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>13</v>
@@ -2315,25 +2431,28 @@
       <c r="H44">
         <v>1</v>
       </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
       <c r="K44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B45" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2">
-        <v>5</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>13</v>
@@ -2341,375 +2460,406 @@
       <c r="H45">
         <v>1</v>
       </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
       <c r="K45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B46" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2">
-        <v>5</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H46">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
       </c>
       <c r="K46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B47" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2">
-        <v>5</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H47">
-        <v>1500</v>
+        <v>15</v>
+      </c>
+      <c r="J47" t="s">
+        <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B48" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2">
-        <v>5</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>300</v>
+      </c>
+      <c r="J48" t="s">
+        <v>39</v>
       </c>
       <c r="K48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B49" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C49" s="2">
-        <v>5</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>13</v>
+        <v>193</v>
+      </c>
+      <c r="G49" t="s">
+        <v>58</v>
       </c>
       <c r="H49">
-        <v>100</v>
-      </c>
-      <c r="K49" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" s="17">
+        <v>25716.35</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B50" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C50" s="2">
         <v>5</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>34</v>
+      <c r="D50" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
       </c>
       <c r="K50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B51" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C51" s="2">
         <v>5</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>34</v>
+      <c r="D51" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
       </c>
       <c r="K51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B52" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C52" s="2">
         <v>5</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>34</v>
+      <c r="D52" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B53" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C53" s="2">
         <v>5</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>34</v>
+      <c r="D53" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="I53" s="20">
-        <v>320.05</v>
-      </c>
       <c r="J53" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B54" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C54" s="2">
         <v>5</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>34</v>
+      <c r="D54" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
-      <c r="I54" s="20">
-        <v>683.33</v>
-      </c>
       <c r="J54" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B55" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C55" s="2">
-        <v>6</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J55" t="s">
+        <v>14</v>
       </c>
       <c r="K55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B56" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C56" s="2">
-        <v>6</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="J56" t="s">
+        <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B57" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C57" s="2">
-        <v>6</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H57">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>24</v>
       </c>
       <c r="K57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B58" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C58" s="2">
-        <v>6</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H58">
-        <v>1500</v>
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B59" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C59" s="2">
-        <v>6</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>13</v>
@@ -2717,595 +2867,638 @@
       <c r="H59">
         <v>1</v>
       </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
       <c r="K59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B60" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C60" s="2">
-        <v>6</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H60">
-        <v>100</v>
+        <v>2350</v>
+      </c>
+      <c r="J60" t="s">
+        <v>22</v>
       </c>
       <c r="K60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B61" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C61" s="2">
-        <v>6</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2151</v>
+      </c>
+      <c r="J61" t="s">
+        <v>22</v>
       </c>
       <c r="K61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B62" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C62" s="2">
-        <v>6</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B63" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C63" s="2">
-        <v>6</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63">
+        <v>200</v>
+      </c>
+      <c r="J63" t="s">
         <v>22</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63">
-        <v>5</v>
-      </c>
       <c r="K63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B64" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C64" s="2">
-        <v>6</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
-      <c r="I64" s="20">
-        <v>320.05</v>
-      </c>
       <c r="J64" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B65" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C65" s="2">
-        <v>6</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
-      <c r="I65" s="20">
-        <v>683.33</v>
-      </c>
       <c r="J65" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B66" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C66" s="2">
-        <v>7</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J66" t="s">
+        <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B67" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C67" s="2">
-        <v>7</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B68" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C68" s="2">
-        <v>7</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H68">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>14</v>
       </c>
       <c r="K68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B69" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C69" s="2">
-        <v>7</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H69">
-        <v>1500</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B70" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C70" s="2">
-        <v>7</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>300</v>
+      </c>
+      <c r="J70" t="s">
+        <v>39</v>
       </c>
       <c r="K70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B71" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C71" s="2">
-        <v>7</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>13</v>
+        <v>193</v>
+      </c>
+      <c r="G71" t="s">
+        <v>58</v>
       </c>
       <c r="H71">
-        <v>100</v>
-      </c>
-      <c r="K71" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" s="17">
+        <v>25716.35</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B72" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2">
-        <v>7</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J72" t="s">
+        <v>14</v>
       </c>
       <c r="K72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B73" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2">
-        <v>7</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>14</v>
       </c>
       <c r="K73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B74" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C74" s="2">
-        <v>7</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>14</v>
       </c>
       <c r="K74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B75" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2">
-        <v>7</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
-      <c r="I75" s="20">
-        <v>320.05</v>
-      </c>
       <c r="J75" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B76" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2">
-        <v>7</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
-      <c r="I76" s="20">
-        <v>683.33</v>
-      </c>
       <c r="J76" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B77" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2">
-        <v>8</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J77" t="s">
+        <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B78" s="2">
+        <v>50</v>
+      </c>
+      <c r="C78" s="2">
+        <v>6</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78">
         <v>60</v>
       </c>
-      <c r="C78" s="2">
-        <v>8</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" t="s">
-        <v>33</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
+      <c r="J78" t="s">
+        <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B79" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2">
-        <v>8</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H79">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>24</v>
       </c>
       <c r="K79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B80" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2">
-        <v>8</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H80">
-        <v>1500</v>
+        <v>2</v>
+      </c>
+      <c r="J80" t="s">
+        <v>14</v>
       </c>
       <c r="K80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B81" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2">
-        <v>8</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>13</v>
@@ -3313,349 +3506,378 @@
       <c r="H81">
         <v>1</v>
       </c>
+      <c r="J81" t="s">
+        <v>14</v>
+      </c>
       <c r="K81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B82" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2">
-        <v>8</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H82">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="J82" t="s">
+        <v>14</v>
       </c>
       <c r="K82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B83" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2">
-        <v>8</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J83" t="s">
+        <v>14</v>
       </c>
       <c r="K83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B84" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2">
-        <v>8</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>3500</v>
+      </c>
+      <c r="J84" t="s">
+        <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B85" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2">
-        <v>8</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85">
+        <v>1000</v>
+      </c>
+      <c r="J85" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85">
-        <v>5</v>
-      </c>
       <c r="K85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B86" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C86" s="2">
-        <v>8</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
-      <c r="I86" s="20">
-        <v>320.05</v>
-      </c>
       <c r="J86" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B87" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C87" s="2">
-        <v>8</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87" s="20">
-        <v>683.33</v>
+        <v>200</v>
       </c>
       <c r="J87" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B88" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C88" s="2">
-        <v>9</v>
-      </c>
-      <c r="D88" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F88" t="s">
         <v>38</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88">
+        <v>300</v>
+      </c>
+      <c r="J88" t="s">
         <v>39</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
       <c r="K88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B89" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2">
-        <v>9</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>13</v>
+        <v>192</v>
+      </c>
+      <c r="G89" t="s">
+        <v>58</v>
       </c>
       <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="K89" t="s">
-        <v>14</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="I89" s="17">
+        <v>8.92</v>
+      </c>
+      <c r="J89" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B90" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C90" s="2">
-        <v>9</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>13</v>
+        <v>194</v>
+      </c>
+      <c r="G90" t="s">
+        <v>58</v>
       </c>
       <c r="H90">
-        <v>200</v>
-      </c>
-      <c r="K90" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" s="17">
+        <v>1879.01</v>
+      </c>
+      <c r="J90" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B91" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C91" s="2">
-        <v>9</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H91">
-        <v>1500</v>
+        <v>2</v>
+      </c>
+      <c r="J91" t="s">
+        <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B92" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C92" s="2">
-        <v>9</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J92" t="s">
+        <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B93" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C93" s="2">
-        <v>9</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H93">
-        <v>100</v>
-      </c>
-      <c r="K93" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="J93" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B94" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C94" s="2">
-        <v>9</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>13</v>
@@ -3663,167 +3885,173 @@
       <c r="H94">
         <v>1</v>
       </c>
+      <c r="J94" t="s">
+        <v>14</v>
+      </c>
       <c r="K94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B95" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C95" s="2">
-        <v>9</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>14</v>
       </c>
       <c r="K95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B96" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C96" s="2">
-        <v>9</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>14</v>
       </c>
       <c r="K96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B97" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C97" s="2">
-        <v>9</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97" s="20">
-        <v>320.05</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B98" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C98" s="2">
-        <v>9</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98" s="20">
-        <v>683.33</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B99" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C99" s="2">
-        <v>10</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B100" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C100" s="2">
-        <v>10</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>13</v>
@@ -3831,570 +4059,78 @@
       <c r="H100">
         <v>1</v>
       </c>
+      <c r="J100" t="s">
+        <v>14</v>
+      </c>
       <c r="K100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B101" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C101" s="2">
-        <v>10</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H101">
-        <v>200</v>
+        <v>50</v>
+      </c>
+      <c r="J101" t="s">
+        <v>14</v>
       </c>
       <c r="K101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>100157714</v>
+        <v>100159079</v>
       </c>
       <c r="B102" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C102" s="2">
-        <v>10</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>41</v>
+        <v>8</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="G102" t="s">
+        <v>58</v>
       </c>
       <c r="H102">
-        <v>1500</v>
+        <v>1</v>
+      </c>
+      <c r="I102" s="17">
+        <v>56047.5</v>
+      </c>
+      <c r="J102" t="s">
+        <v>59</v>
       </c>
       <c r="K102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B103" s="2">
-        <v>60</v>
-      </c>
-      <c r="C103" s="2">
-        <v>10</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="K103" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B104" s="2">
-        <v>60</v>
-      </c>
-      <c r="C104" s="2">
-        <v>10</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104">
-        <v>100</v>
-      </c>
-      <c r="K104" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B105" s="2">
-        <v>60</v>
-      </c>
-      <c r="C105" s="2">
-        <v>10</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="K105" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B106" s="2">
-        <v>60</v>
-      </c>
-      <c r="C106" s="2">
-        <v>10</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106">
-        <v>5</v>
-      </c>
-      <c r="K106" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B107" s="2">
-        <v>60</v>
-      </c>
-      <c r="C107" s="2">
-        <v>10</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107">
-        <v>5</v>
-      </c>
-      <c r="K107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B108" s="2">
-        <v>60</v>
-      </c>
-      <c r="C108" s="2">
-        <v>10</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F108" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108" s="20">
-        <v>320.05</v>
-      </c>
-      <c r="J108" t="s">
-        <v>28</v>
-      </c>
-      <c r="K108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B109" s="2">
-        <v>60</v>
-      </c>
-      <c r="C109" s="2">
-        <v>10</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F109" t="s">
-        <v>29</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="I109" s="20">
-        <v>683.33</v>
-      </c>
-      <c r="J109" t="s">
-        <v>28</v>
-      </c>
-      <c r="K109" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B110" s="2">
-        <v>60</v>
-      </c>
-      <c r="C110" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110">
-        <v>200</v>
-      </c>
-      <c r="K110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B111" s="2">
-        <v>60</v>
-      </c>
-      <c r="C111" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111">
-        <v>1500</v>
-      </c>
-      <c r="K111" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B112" s="2">
-        <v>60</v>
-      </c>
-      <c r="C112" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="K112" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B113" s="2">
-        <v>60</v>
-      </c>
-      <c r="C113" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113">
-        <v>100</v>
-      </c>
-      <c r="K113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B114" s="2">
-        <v>60</v>
-      </c>
-      <c r="C114" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="K114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B115" s="2">
-        <v>60</v>
-      </c>
-      <c r="C115" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115">
-        <v>5</v>
-      </c>
-      <c r="K115" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B116" s="2">
-        <v>60</v>
-      </c>
-      <c r="C116" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116">
-        <v>5</v>
-      </c>
-      <c r="K116" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B117" s="2">
-        <v>60</v>
-      </c>
-      <c r="C117" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F117" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117" s="20">
-        <v>320.05</v>
-      </c>
-      <c r="J117" t="s">
-        <v>28</v>
-      </c>
-      <c r="K117" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B118" s="2">
-        <v>60</v>
-      </c>
-      <c r="C118" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F118" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118" s="20">
-        <v>683.33</v>
-      </c>
-      <c r="J118" t="s">
-        <v>28</v>
-      </c>
-      <c r="K118" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B119" s="2">
-        <v>60</v>
-      </c>
-      <c r="C119" s="2">
-        <v>12</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F119" t="s">
-        <v>46</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119" s="20">
-        <v>12797.523550035898</v>
-      </c>
-      <c r="J119" t="s">
-        <v>47</v>
-      </c>
-      <c r="K119" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>100157714</v>
-      </c>
-      <c r="B120" s="2">
-        <v>60</v>
-      </c>
-      <c r="C120" s="2">
-        <v>13</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F120" t="s">
-        <v>182</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H120">
-        <v>-1</v>
-      </c>
-      <c r="I120" s="20">
-        <v>117985.83</v>
-      </c>
-      <c r="J120" t="s">
-        <v>47</v>
-      </c>
-      <c r="K120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4402,14 +4138,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4417,7 +4153,7 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4428,861 +4164,570 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>48</v>
+      <c r="C2" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="15">
+        <v>58</v>
+      </c>
+      <c r="C3" s="12">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="15" t="s">
-        <v>51</v>
+      <c r="C4" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
-        <v>53</v>
+      <c r="C5" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="15" t="s">
-        <v>28</v>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="15" t="s">
-        <v>56</v>
+      <c r="C7" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="15" t="s">
-        <v>58</v>
+      <c r="C8" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="15" t="s">
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="15" t="s">
-        <v>86</v>
+      <c r="C23" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="15" t="s">
-        <v>88</v>
+      <c r="C24" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="15" t="s">
-        <v>90</v>
+      <c r="C25" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="15" t="s">
-        <v>92</v>
+      <c r="C26" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="15" t="s">
-        <v>94</v>
+      <c r="C27" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="15" t="s">
-        <v>96</v>
+      <c r="C28" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="15" t="s">
-        <v>98</v>
+      <c r="C29" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="15" t="s">
-        <v>100</v>
+      <c r="C30" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="15" t="s">
-        <v>102</v>
+      <c r="C31" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="15" t="s">
-        <v>104</v>
+      <c r="C32" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="15" t="s">
-        <v>106</v>
+      <c r="C33" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="15" t="s">
-        <v>108</v>
+      <c r="C34" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="15" t="s">
-        <v>110</v>
+      <c r="C35" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="15" t="s">
-        <v>112</v>
+      <c r="C36" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="15" t="s">
-        <v>114</v>
+      <c r="C37" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="15" t="s">
-        <v>116</v>
+      <c r="C38" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="15" t="s">
-        <v>118</v>
+      <c r="C39" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="15" t="s">
-        <v>120</v>
+      <c r="C40" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="15" t="s">
-        <v>122</v>
+      <c r="C41" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="15" t="s">
-        <v>124</v>
+      <c r="C42" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="15" t="s">
-        <v>126</v>
+      <c r="C43" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="15" t="s">
-        <v>128</v>
+      <c r="C44" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="15" t="s">
-        <v>130</v>
+      <c r="C45" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="15" t="s">
-        <v>131</v>
+      <c r="C46" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="15" t="s">
-        <v>133</v>
+      <c r="C47" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="15" t="s">
-        <v>135</v>
+      <c r="C48" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="15" t="s">
-        <v>137</v>
+      <c r="C49" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="15" t="s">
-        <v>139</v>
+      <c r="C50" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="15" t="s">
-        <v>141</v>
+      <c r="C51" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="15" t="s">
-        <v>143</v>
+      <c r="C52" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="15" t="s">
-        <v>145</v>
+      <c r="C53" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="15" t="s">
-        <v>147</v>
+      <c r="C54" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="15" t="s">
-        <v>149</v>
+      <c r="C55" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="15" t="s">
-        <v>151</v>
+      <c r="C56" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="15" t="s">
-        <v>153</v>
+      <c r="C57" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="15" t="s">
-        <v>155</v>
+      <c r="C58" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="15" t="s">
-        <v>157</v>
+      <c r="C59" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="15" t="s">
-        <v>159</v>
+      <c r="C60" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="15" t="s">
-        <v>161</v>
+      <c r="C61" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="15" t="s">
-        <v>163</v>
+      <c r="C62" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="15" t="s">
-        <v>165</v>
+      <c r="C63" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="15" t="s">
-        <v>167</v>
+      <c r="C64" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="15" t="s">
-        <v>169</v>
+      <c r="C65" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="15" t="s">
-        <v>171</v>
+      <c r="C66" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="15" t="s">
-        <v>173</v>
+      <c r="C67" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="D67" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="15" t="s">
-        <v>175</v>
+      <c r="C68" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="15" t="s">
-        <v>176</v>
+      <c r="C69" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="D69" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="15" t="s">
-        <v>178</v>
+      <c r="C70" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="D70" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="15" t="s">
-        <v>180</v>
+      <c r="C71" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="D71" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100277C7C466BA2334796C5FFC1EA441B65" ma:contentTypeVersion="17" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="16858d3189b6c318b3947e59ae1ba5bc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d711dfe6-0632-452e-83db-055fc5970243" xmlns:ns3="2c8c709e-1982-48dc-b855-e25b1b3a4518" xmlns:ns4="6f821667-dc32-45c3-a292-e0c8028e4643" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27b74a73fb41db5c8ff77e49d297dc92" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="d711dfe6-0632-452e-83db-055fc5970243"/>
-    <xsd:import namespace="2c8c709e-1982-48dc-b855-e25b1b3a4518"/>
-    <xsd:import namespace="6f821667-dc32-45c3-a292-e0c8028e4643"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d711dfe6-0632-452e-83db-055fc5970243" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2c8c709e-1982-48dc-b855-e25b1b3a4518" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="2f0c148f-5ca2-4a38-b716-16d776545e11" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6f821667-dc32-45c3-a292-e0c8028e4643" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d6216518-f20c-4c6e-b2fa-bd0667b4c271}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="6f821667-dc32-45c3-a292-e0c8028e4643">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4280C1CB-327D-44F5-B6F2-C0ABFBEBE0C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AF8D324-D6C1-40C2-B928-61CCEC63474D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d711dfe6-0632-452e-83db-055fc5970243"/>
-    <ds:schemaRef ds:uri="2c8c709e-1982-48dc-b855-e25b1b3a4518"/>
-    <ds:schemaRef ds:uri="6f821667-dc32-45c3-a292-e0c8028e4643"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Perizia.xlsx
+++ b/Perizia.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Elenchi" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,6 +49,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -150,7 +158,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -201,6 +209,9 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -210,7 +221,74 @@
     <cellStyle name="Migliaia 2" xfId="4"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -518,11 +596,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -645,32 +723,29 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="19" t="inlineStr">
-        <is>
-          <t>CASSOLA KM 46+067</t>
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="inlineStr">
+        <is>
+          <t>PIOMBINO DESE KM 22+894</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>821/8450</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>NON CODIFICATA</t>
+          <t>OS.AP.A.0106.A</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="17" t="n">
-        <v>25716.35</v>
+        <v>500</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -684,19 +759,19 @@
         <v>100159079</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>LOREGGIOLA KM 3+750</t>
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="inlineStr">
+        <is>
+          <t>PIOMBINO DESE KM 22+894</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AI.PL.A.2004.A</t>
+          <t>OS.IF.A.0102.A</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -705,7 +780,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -723,19 +798,19 @@
         <v>100159079</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>LOREGGIOLA KM 3+750</t>
+        <v>1</v>
+      </c>
+      <c r="D5" s="18" t="inlineStr">
+        <is>
+          <t>PIOMBINO DESE KM 22+894</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AI.PL.A.2005.A</t>
+          <t>OS.MS.B.0104.A</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -744,11 +819,11 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -762,19 +837,19 @@
         <v>100159079</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>LOREGGIOLA KM 3+750</t>
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="inlineStr">
+        <is>
+          <t>PIOMBINO DESE KM 22+894</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AI.PL.A.2006.A</t>
+          <t>OS.MS.B.0105.A</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -783,11 +858,11 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -801,19 +876,19 @@
         <v>100159079</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>LOREGGIOLA KM 3+750</t>
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="inlineStr">
+        <is>
+          <t>PIOMBINO DESE KM 22+894</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AI.PL.A.2007.A</t>
+          <t>OS.AP.A.0103.A</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -822,11 +897,11 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -840,19 +915,19 @@
         <v>100159079</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>LOREGGIOLA KM 3+750</t>
+        <v>1</v>
+      </c>
+      <c r="D8" s="18" t="inlineStr">
+        <is>
+          <t>PIOMBINO DESE KM 22+894</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AI.PL.A.2007.B</t>
+          <t>OS.MS.A.0102.A</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -861,11 +936,11 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -879,19 +954,19 @@
         <v>100159079</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>LOREGGIOLA KM 3+750</t>
+        <v>2</v>
+      </c>
+      <c r="D9" s="19" t="inlineStr">
+        <is>
+          <t>CASSOLA KM 46+067</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AI.PL.B.3004.A</t>
+          <t>821/8450</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -900,7 +975,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I9" s="17" t="n">
+        <v>25716.35</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -918,19 +996,19 @@
         <v>100159079</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>LOREGGIOLA KM 3+750</t>
+        <v>2</v>
+      </c>
+      <c r="D10" s="19" t="inlineStr">
+        <is>
+          <t>CASSOLA KM 46+067</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BA.PS.A.3 36.A</t>
+          <t>OS.AP.A.0106.A</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -939,7 +1017,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -957,19 +1035,19 @@
         <v>100159079</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>LOREGGIOLA KM 3+750</t>
+        <v>2</v>
+      </c>
+      <c r="D11" s="19" t="inlineStr">
+        <is>
+          <t>CASSOLA KM 46+067</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>TC.CF.A.2001.C</t>
+          <t>OS.IF.A.0102.A</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -978,11 +1056,11 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>TAG</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -996,19 +1074,19 @@
         <v>100159079</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>LOREGGIOLA KM 3+750</t>
+        <v>2</v>
+      </c>
+      <c r="D12" s="19" t="inlineStr">
+        <is>
+          <t>CASSOLA KM 46+067</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TC.ST.H.3103.B</t>
+          <t>OS.MS.B.0104.A</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1021,7 +1099,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1035,19 +1113,19 @@
         <v>100159079</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>LOREGGIOLA KM 3+750</t>
+        <v>2</v>
+      </c>
+      <c r="D13" s="19" t="inlineStr">
+        <is>
+          <t>CASSOLA KM 46+067</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TC.ST.H.3102.D</t>
+          <t>OS.MS.B.0105.A</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1056,11 +1134,11 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1074,19 +1152,19 @@
         <v>100159079</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>LOREGGIOLA KM 3+750</t>
+        <v>2</v>
+      </c>
+      <c r="D14" s="19" t="inlineStr">
+        <is>
+          <t>CASSOLA KM 46+067</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TC.GD.D.3101.K</t>
+          <t>OS.AP.A.0103.A</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1095,11 +1173,11 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1113,19 +1191,19 @@
         <v>100159079</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>LOREGGIOLA KM 3+750</t>
+        <v>2</v>
+      </c>
+      <c r="D15" s="19" t="inlineStr">
+        <is>
+          <t>CASSOLA KM 46+067</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TC.LV.A.3102.C</t>
+          <t>OS.MS.A.0102.A</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1134,11 +1212,11 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1164,7 +1242,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TC.PM.F.2 04.B</t>
+          <t>AI.PL.A.2004.A</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1173,11 +1251,11 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7000</v>
+        <v>2</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1203,7 +1281,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TC.TR.C.3003.A</t>
+          <t>AI.PL.A.2005.A</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1212,7 +1290,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1242,7 +1320,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TC.RR.C.1001.S</t>
+          <t>AI.PL.A.2006.A</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1251,7 +1329,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1281,7 +1359,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MO.CV.B.2117.C</t>
+          <t>AI.PL.A.2007.A</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1290,11 +1368,11 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5500</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1320,7 +1398,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>IG.GF.R.2001.A</t>
+          <t>AI.PL.A.2007.B</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1359,7 +1437,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>IG.GF.R.2002.A</t>
+          <t>AI.PL.B.3004.A</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1368,11 +1446,11 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1398,7 +1476,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MO.SC.A.6100.A</t>
+          <t>BA.PS.A.3 36.A</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1407,11 +1485,11 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1437,7 +1515,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MO.BL.D.3103.C</t>
+          <t>TC.CF.A.2001.C</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1450,7 +1528,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>TAG</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1476,7 +1554,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>OM.MT.C.3 06.A</t>
+          <t>TC.ST.H.3103.B</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1485,11 +1563,11 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1515,23 +1593,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>814/2750</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>NON CODIFICATA</t>
+          <t>TC.ST.H.3102.D</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1500</v>
-      </c>
-      <c r="I25" s="17" t="n">
-        <v>8.92</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1557,19 +1632,16 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>846/6340</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>NON CODIFICATA</t>
+          <t>TC.GD.D.3101.K</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="17" t="n">
-        <v>1879.01</v>
+        <v>2</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1587,19 +1659,19 @@
         <v>100159079</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AI.PL.A.2004.A</t>
+          <t>TC.LV.A.3102.C</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1626,19 +1698,19 @@
         <v>100159079</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D28" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AI.PL.A.2005.A</t>
+          <t>TC.PM.F.2 04.B</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -1647,11 +1719,11 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>7000</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1665,19 +1737,19 @@
         <v>100159079</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AI.PL.A.2006.A</t>
+          <t>TC.TR.C.3003.A</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -1686,7 +1758,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1704,19 +1776,19 @@
         <v>100159079</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AI.PL.A.2007.A</t>
+          <t>TC.RR.C.1001.S</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -1725,7 +1797,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1743,19 +1815,19 @@
         <v>100159079</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AI.PL.A.2007.B</t>
+          <t>MO.CV.B.2117.C</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -1764,11 +1836,11 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>5500</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1782,19 +1854,19 @@
         <v>100159079</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D32" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AI.PL.B.3004.A</t>
+          <t>IG.GF.R.2001.A</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -1803,7 +1875,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1821,19 +1893,19 @@
         <v>100159079</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D33" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>BA.PS.A.3 36.A</t>
+          <t>IG.GF.R.2002.A</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -1842,7 +1914,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1860,19 +1932,19 @@
         <v>100159079</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>TC.CF.A.2001.C</t>
+          <t>MO.SC.A.6100.A</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -1885,7 +1957,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>TAG</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -1899,19 +1971,19 @@
         <v>100159079</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TC.ST.H.3103.B</t>
+          <t>MO.BL.D.3103.C</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -1920,11 +1992,11 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -1938,19 +2010,19 @@
         <v>100159079</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D36" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TC.ST.H.3102.D</t>
+          <t>OM.MT.C.3 06.A</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -1959,11 +2031,11 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -1977,28 +2049,31 @@
         <v>100159079</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TC.PM.F.2 04.B</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>ANAGRAFICA</t>
+          <t>814/2750</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NON CODIFICATA</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>700</v>
+        <v>1500</v>
+      </c>
+      <c r="I37" s="17" t="n">
+        <v>8.92</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2016,32 +2091,35 @@
         <v>100159079</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D38" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MO.CV.B.2117.C</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>ANAGRAFICA</t>
+          <t>846/6340</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NON CODIFICATA</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>700</v>
+        <v>1</v>
+      </c>
+      <c r="I38" s="17" t="n">
+        <v>1879.01</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2055,19 +2133,19 @@
         <v>100159079</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>IG.GF.R.2001.A</t>
+          <t>OS.AP.A.0106.A</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -2076,11 +2154,11 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2094,32 +2172,32 @@
         <v>100159079</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>OS.IF.A.0102.A</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>4</v>
       </c>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>IG.GF.R.2002.A</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>ANAGRAFICA</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>200</v>
-      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2133,19 +2211,19 @@
         <v>100159079</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TC.TR.M.3001.C</t>
+          <t>OS.MS.B.0104.A</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -2158,7 +2236,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2172,19 +2250,19 @@
         <v>100159079</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D42" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>TC.TR.C.3005.B</t>
+          <t>OS.MS.B.0105.A</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -2193,11 +2271,11 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2211,19 +2289,19 @@
         <v>100159079</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D43" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TC.ST.H.1001.A</t>
+          <t>OS.AP.A.0103.A</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -2232,11 +2310,11 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2250,19 +2328,19 @@
         <v>100159079</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D44" s="4" t="inlineStr">
-        <is>
-          <t>PIANZANO KM 55+421</t>
+        <v>3</v>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>LOREGGIOLA KM 3+750</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>TC.ST.H.2001.A</t>
+          <t>OS.MS.A.0102.A</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -2271,11 +2349,11 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2301,7 +2379,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AS.SI.A.2103.A</t>
+          <t>AI.PL.A.2004.A</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -2310,7 +2388,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2340,7 +2418,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AS.SI.A.2105.A</t>
+          <t>AI.PL.A.2005.A</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -2379,7 +2457,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>BA.PS.A.3 27.A</t>
+          <t>AI.PL.A.2006.A</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -2388,11 +2466,11 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2418,7 +2496,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>OM.MT.C.3 06.A</t>
+          <t>AI.PL.A.2007.A</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -2427,11 +2505,11 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2457,20 +2535,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>821/8450</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>NON CODIFICATA</t>
+          <t>AI.PL.A.2007.B</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>1</v>
       </c>
-      <c r="I49" s="17" t="n">
-        <v>25716.35</v>
-      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>CAD</t>
@@ -2487,19 +2562,19 @@
         <v>100159079</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D50" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AI.PL.A.2004.A</t>
+          <t>AI.PL.B.3004.A</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -2526,19 +2601,19 @@
         <v>100159079</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D51" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>AI.PL.A.2005.A</t>
+          <t>BA.PS.A.3 36.A</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -2547,11 +2622,11 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2565,19 +2640,19 @@
         <v>100159079</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D52" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>AI.PL.A.2006.A</t>
+          <t>TC.CF.A.2001.C</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
@@ -2590,7 +2665,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>TAG</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2604,19 +2679,19 @@
         <v>100159079</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D53" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>AI.PL.A.2007.A</t>
+          <t>TC.ST.H.3103.B</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -2625,7 +2700,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2643,19 +2718,19 @@
         <v>100159079</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D54" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>AI.PL.A.2007.B</t>
+          <t>TC.ST.H.3102.D</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
@@ -2682,19 +2757,19 @@
         <v>100159079</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D55" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>AI.PL.B.3004.A</t>
+          <t>TC.PM.F.2 04.B</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
@@ -2703,11 +2778,11 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>700</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2721,19 +2796,19 @@
         <v>100159079</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D56" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>BA.PS.A.3 36.A</t>
+          <t>MO.CV.B.2117.C</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
@@ -2742,7 +2817,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2760,19 +2835,19 @@
         <v>100159079</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D57" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>TC.CF.A.2001.C</t>
+          <t>IG.GF.R.2001.A</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
@@ -2785,7 +2860,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>TAG</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -2799,19 +2874,19 @@
         <v>100159079</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D58" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TC.ST.H.3103.B</t>
+          <t>IG.GF.R.2002.A</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
@@ -2820,11 +2895,11 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -2838,19 +2913,19 @@
         <v>100159079</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D59" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>TC.ST.H.3102.D</t>
+          <t>TC.TR.M.3001.C</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
@@ -2859,7 +2934,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2877,19 +2952,19 @@
         <v>100159079</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D60" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>TC.PM.F.2 04.B</t>
+          <t>TC.TR.C.3005.B</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
@@ -2898,11 +2973,11 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>2350</v>
+        <v>2</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -2916,19 +2991,19 @@
         <v>100159079</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D61" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MO.CV.B.2117.C</t>
+          <t>TC.ST.H.1001.A</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
@@ -2937,11 +3012,11 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2151</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -2955,19 +3030,19 @@
         <v>100159079</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D62" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>IG.GF.R.2001.A</t>
+          <t>TC.ST.H.2001.A</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
@@ -2994,19 +3069,19 @@
         <v>100159079</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D63" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>IG.GF.R.2002.A</t>
+          <t>AS.SI.A.2103.A</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
@@ -3015,11 +3090,11 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3033,19 +3108,19 @@
         <v>100159079</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D64" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>AS.SI.A.2103.A</t>
+          <t>AS.SI.A.2105.A</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
@@ -3072,19 +3147,19 @@
         <v>100159079</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D65" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>AS.SI.A.2105.A</t>
+          <t>BA.PS.A.3 27.A</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
@@ -3093,11 +3168,11 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3111,19 +3186,19 @@
         <v>100159079</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D66" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TC.TR.M.3001.C</t>
+          <t>OM.MT.C.3 06.A</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
@@ -3132,11 +3207,11 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3150,28 +3225,31 @@
         <v>100159079</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D67" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>TC.TR.C.3005.B</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>ANAGRAFICA</t>
+          <t>821/8450</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NON CODIFICATA</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I67" s="17" t="n">
+        <v>25716.35</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3189,19 +3267,19 @@
         <v>100159079</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D68" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>TC.ST.H.1001.A</t>
+          <t>OS.AP.A.0106.A</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
@@ -3210,11 +3288,11 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3228,19 +3306,19 @@
         <v>100159079</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D69" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>TC.ST.H.2001.A</t>
+          <t>OS.IF.A.0102.A</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
@@ -3249,7 +3327,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3267,19 +3345,19 @@
         <v>100159079</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D70" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>OM.MT.C.3 06.A</t>
+          <t>OS.MS.B.0104.A</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
@@ -3288,11 +3366,11 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3306,35 +3384,32 @@
         <v>100159079</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D71" s="7" t="inlineStr">
-        <is>
-          <t>ISTRANA KM 50+713</t>
+        <v>4</v>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>821/8450</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>NON CODIFICATA</t>
+          <t>OS.MS.B.0105.A</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" s="17" t="n">
-        <v>25716.35</v>
+        <v>10</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -3348,19 +3423,19 @@
         <v>100159079</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D72" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>4</v>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>AI.PL.A.2004.A</t>
+          <t>OS.AP.A.0103.A</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
@@ -3369,11 +3444,11 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -3387,19 +3462,19 @@
         <v>100159079</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D73" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>4</v>
+      </c>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t>PIANZANO KM 55+421</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>AI.PL.A.2005.A</t>
+          <t>OS.MS.A.0102.A</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
@@ -3408,11 +3483,11 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -3426,19 +3501,19 @@
         <v>100159079</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D74" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D74" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>AI.PL.A.2006.A</t>
+          <t>AI.PL.A.2004.A</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
@@ -3447,7 +3522,7 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3465,19 +3540,19 @@
         <v>100159079</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D75" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D75" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>AI.PL.A.2007.A</t>
+          <t>AI.PL.A.2005.A</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
@@ -3504,19 +3579,19 @@
         <v>100159079</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D76" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D76" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>AI.PL.A.2007.B</t>
+          <t>AI.PL.A.2006.A</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
@@ -3543,19 +3618,19 @@
         <v>100159079</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D77" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D77" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>AI.PL.B.3004.A</t>
+          <t>AI.PL.A.2007.A</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
@@ -3564,7 +3639,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3582,19 +3657,19 @@
         <v>100159079</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D78" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D78" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>BA.PS.A.3 36.A</t>
+          <t>AI.PL.A.2007.B</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
@@ -3603,11 +3678,11 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -3621,19 +3696,19 @@
         <v>100159079</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D79" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D79" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>TC.CF.A.2001.C</t>
+          <t>AI.PL.B.3004.A</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
@@ -3642,11 +3717,11 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>TAG</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -3660,32 +3735,32 @@
         <v>100159079</v>
       </c>
       <c r="B80" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>BA.PS.A.3 36.A</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
         <v>50</v>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D80" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>TC.ST.H.3103.B</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>ANAGRAFICA</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -3699,19 +3774,19 @@
         <v>100159079</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D81" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D81" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>TC.ST.H.3102.D</t>
+          <t>TC.CF.A.2001.C</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
@@ -3724,7 +3799,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>TAG</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -3738,19 +3813,19 @@
         <v>100159079</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D82" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D82" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>TC.TR.C.3003.A</t>
+          <t>TC.ST.H.3103.B</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
@@ -3777,19 +3852,19 @@
         <v>100159079</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D83" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D83" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>TC.RR.C.1001.S</t>
+          <t>TC.ST.H.3102.D</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
@@ -3798,7 +3873,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3816,14 +3891,14 @@
         <v>100159079</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D84" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D84" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3837,7 +3912,7 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>3500</v>
+        <v>2350</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3855,14 +3930,14 @@
         <v>100159079</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D85" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D85" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3876,7 +3951,7 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1000</v>
+        <v>2151</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3894,14 +3969,14 @@
         <v>100159079</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D86" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D86" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3933,14 +4008,14 @@
         <v>100159079</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D87" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D87" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3972,19 +4047,19 @@
         <v>100159079</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D88" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D88" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>OM.MT.C.3 06.A</t>
+          <t>AS.SI.A.2103.A</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
@@ -3993,11 +4068,11 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -4011,35 +4086,32 @@
         <v>100159079</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D89" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D89" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>814/2750</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>NON CODIFICATA</t>
+          <t>AS.SI.A.2105.A</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I89" s="17" t="n">
-        <v>8.92</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -4053,31 +4125,28 @@
         <v>100159079</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D90" s="8" t="inlineStr">
-        <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+        <v>5</v>
+      </c>
+      <c r="D90" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>846/6340</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>NON CODIFICATA</t>
+          <t>TC.TR.M.3001.C</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" s="17" t="n">
-        <v>1879.01</v>
+        <v>2</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4098,16 +4167,16 @@
         <v>20</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D91" s="9" t="inlineStr">
-        <is>
-          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        <v>5</v>
+      </c>
+      <c r="D91" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>TC.VS.C.3003.F</t>
+          <t>TC.TR.C.3005.B</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
@@ -4137,16 +4206,16 @@
         <v>20</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D92" s="9" t="inlineStr">
-        <is>
-          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        <v>5</v>
+      </c>
+      <c r="D92" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>TC.TR.C.3001.A</t>
+          <t>TC.ST.H.1001.A</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
@@ -4155,7 +4224,7 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4176,16 +4245,16 @@
         <v>20</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D93" s="9" t="inlineStr">
-        <is>
-          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        <v>5</v>
+      </c>
+      <c r="D93" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>TC.RR.C.1001.S</t>
+          <t>TC.ST.H.2001.A</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
@@ -4194,14 +4263,14 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="K93" s="15" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -4215,16 +4284,16 @@
         <v>20</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D94" s="9" t="inlineStr">
-        <is>
-          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        <v>5</v>
+      </c>
+      <c r="D94" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>TC.ST.H.3101.B</t>
+          <t>OM.MT.C.3 06.A</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
@@ -4233,11 +4302,11 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -4254,26 +4323,29 @@
         <v>20</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D95" s="9" t="inlineStr">
-        <is>
-          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        <v>5</v>
+      </c>
+      <c r="D95" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>TC.RR.F.1010.A</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>ANAGRAFICA</t>
+          <t>821/8450</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>NON CODIFICATA</t>
         </is>
       </c>
       <c r="H95" t="n">
         <v>1</v>
       </c>
+      <c r="I95" s="17" t="n">
+        <v>25716.35</v>
+      </c>
       <c r="J95" t="inlineStr">
         <is>
           <t>CAD</t>
@@ -4293,16 +4365,16 @@
         <v>20</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D96" s="9" t="inlineStr">
-        <is>
-          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        <v>5</v>
+      </c>
+      <c r="D96" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>TC.RR.F.1013.A</t>
+          <t>OS.AP.A.0106.A</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
@@ -4311,11 +4383,11 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -4329,19 +4401,19 @@
         <v>100159079</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D97" s="10" t="inlineStr">
-        <is>
-          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        <v>5</v>
+      </c>
+      <c r="D97" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>TC.VS.C.3003.F</t>
+          <t>OS.IF.A.0102.A</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
@@ -4350,7 +4422,7 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4368,19 +4440,19 @@
         <v>100159079</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D98" s="10" t="inlineStr">
-        <is>
-          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        <v>5</v>
+      </c>
+      <c r="D98" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>TC.TR.C.3001.A</t>
+          <t>OS.MS.B.0104.A</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
@@ -4389,11 +4461,11 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -4407,19 +4479,19 @@
         <v>100159079</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D99" s="10" t="inlineStr">
-        <is>
-          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        <v>5</v>
+      </c>
+      <c r="D99" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>TC.RR.C.1001.S</t>
+          <t>OS.MS.B.0105.A</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
@@ -4428,11 +4500,11 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -4446,19 +4518,19 @@
         <v>100159079</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D100" s="10" t="inlineStr">
-        <is>
-          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        <v>5</v>
+      </c>
+      <c r="D100" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>TC.ST.H.3101.B</t>
+          <t>OS.AP.A.0103.A</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
@@ -4467,11 +4539,11 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -4485,19 +4557,19 @@
         <v>100159079</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D101" s="10" t="inlineStr">
-        <is>
-          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        <v>5</v>
+      </c>
+      <c r="D101" s="7" t="inlineStr">
+        <is>
+          <t>ISTRANA KM 50+713</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>TC.ST.H.3105.B</t>
+          <t>OS.MS.A.0102.A</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
@@ -4506,11 +4578,11 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -4524,38 +4596,1448 @@
         <v>100159079</v>
       </c>
       <c r="B102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D102" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>AI.PL.A.2004.A</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D103" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>AI.PL.A.2005.A</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D104" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>AI.PL.A.2006.A</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D105" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>AI.PL.A.2007.A</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D106" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>AI.PL.A.2007.B</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D107" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>AI.PL.B.3004.A</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D108" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>BA.PS.A.3 36.A</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>60</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D109" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>TC.CF.A.2001.C</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>TAG</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D110" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>TC.ST.H.3103.B</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D111" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>TC.ST.H.3102.D</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D112" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>TC.TR.C.3003.A</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D113" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>TC.RR.C.1001.S</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D114" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>TC.PM.F.2 04.B</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D115" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>MO.CV.B.2117.C</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D116" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>IG.GF.R.2001.A</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D117" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>IG.GF.R.2002.A</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>200</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D118" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>OM.MT.C.3 06.A</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>300</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D119" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>814/2750</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>NON CODIFICATA</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I119" s="17" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D120" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>846/6340</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>NON CODIFICATA</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" s="17" t="n">
+        <v>1879.01</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D121" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>OS.AP.A.0106.A</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>500</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D122" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>OS.IF.A.0102.A</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D123" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>OS.MS.B.0104.A</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D124" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>OS.MS.B.0105.A</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
         <v>10</v>
       </c>
-      <c r="C102" s="2" t="n">
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D125" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>OS.AP.A.0103.A</t>
+        </is>
+      </c>
+      <c r="G125" s="20" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>100</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D126" s="8" t="inlineStr">
+        <is>
+          <t>TREVISO S.QUARANTA KM 59+110</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>OS.MS.A.0102.A</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>120</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D127" s="9" t="inlineStr">
+        <is>
+          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>TC.VS.C.3003.F</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D128" s="9" t="inlineStr">
+        <is>
+          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>TC.TR.C.3001.A</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D129" s="9" t="inlineStr">
+        <is>
+          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>TC.RR.C.1001.S</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K129" s="15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D130" s="9" t="inlineStr">
+        <is>
+          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>TC.ST.H.3101.B</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D131" s="9" t="inlineStr">
+        <is>
+          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>TC.RR.F.1010.A</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D132" s="9" t="inlineStr">
+        <is>
+          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>TC.RR.F.1013.A</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D133" s="10" t="inlineStr">
+        <is>
+          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>TC.VS.C.3003.F</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D134" s="10" t="inlineStr">
+        <is>
+          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>TC.TR.C.3001.A</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D135" s="10" t="inlineStr">
+        <is>
+          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>TC.RR.C.1001.S</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D136" s="10" t="inlineStr">
+        <is>
+          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>TC.ST.H.3101.B</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D137" s="10" t="inlineStr">
+        <is>
+          <t>REALIZZAZIONE RETE DISTRIBUITA</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>TC.ST.H.3105.B</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="inlineStr">
+        <is>
+          <t>ANAGRAFICA</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>50</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>100159079</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C138" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D102" s="11" t="inlineStr">
+      <c r="D138" s="11" t="inlineStr">
         <is>
           <t>IMPREVISTI</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>IMPREVISTI</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>NON CODIFICATA</t>
         </is>
       </c>
-      <c r="H102" t="n">
+      <c r="H138" t="n">
         <v>1</v>
       </c>
-      <c r="I102" s="17" t="n">
+      <c r="I138" s="17" t="n">
         <v>56047.5</v>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>COR</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>x</t>
         </is>

--- a/Perizia.xlsx
+++ b/Perizia.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Elenchi" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -599,8 +599,8 @@
   <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -4596,14 +4596,14 @@
         <v>100159079</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D102" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4635,14 +4635,14 @@
         <v>100159079</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D103" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4674,14 +4674,14 @@
         <v>100159079</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D104" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4713,14 +4713,14 @@
         <v>100159079</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D105" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4752,14 +4752,14 @@
         <v>100159079</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D106" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4791,14 +4791,14 @@
         <v>100159079</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D107" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4830,14 +4830,14 @@
         <v>100159079</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D108" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4869,14 +4869,14 @@
         <v>100159079</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D109" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4908,14 +4908,14 @@
         <v>100159079</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D110" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4947,14 +4947,14 @@
         <v>100159079</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D111" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4986,14 +4986,14 @@
         <v>100159079</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D112" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5025,14 +5025,14 @@
         <v>100159079</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D113" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5064,14 +5064,14 @@
         <v>100159079</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D114" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5103,14 +5103,14 @@
         <v>100159079</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D115" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5142,14 +5142,14 @@
         <v>100159079</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D116" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5181,14 +5181,14 @@
         <v>100159079</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D117" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5220,14 +5220,14 @@
         <v>100159079</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D118" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5259,14 +5259,14 @@
         <v>100159079</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D119" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5301,14 +5301,14 @@
         <v>100159079</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D120" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5343,14 +5343,14 @@
         <v>100159079</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D121" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5382,14 +5382,14 @@
         <v>100159079</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D122" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5421,14 +5421,14 @@
         <v>100159079</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D123" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5460,14 +5460,14 @@
         <v>100159079</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D124" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5499,14 +5499,14 @@
         <v>100159079</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D125" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5538,14 +5538,14 @@
         <v>100159079</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D126" s="8" t="inlineStr">
         <is>
-          <t>TREVISO S.QUARANTA KM 59+110</t>
+          <t>CASTELFRANCO KM 32+994</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
